--- a/数据整理/stocks/A股/上证主板/601288-农业银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601288-农业银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5580,7 +5581,6 @@
           <t>招商财经大数据策略股票C</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
           <t>81.93</t>
@@ -5596,6 +5596,3024 @@
       </c>
       <c r="H83" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2364</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8762</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>45.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8462</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6512</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4316</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2714</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>62.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7594</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7042</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6651</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5746</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5016</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5000</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4907</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4142</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4000</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3712</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证银行指数</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3123</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2870</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2744</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2683</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2541</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2366</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1453</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>56.26</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1371</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005486</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>61.76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1243</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000743</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>红塔红土盛世普益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>63.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>73.06</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000165</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国投瑞银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>66.87</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009440</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>光大保德信裕鑫混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005039</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>30.48</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>400011</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东方核心动力混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001172</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华弘泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>28.53</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009627</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>673030</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>西部利得多策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010834</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>62.10</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009753</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010657</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>51.98</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010658</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010835</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>168205</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中融中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005040</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>30.48</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009628</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009441</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>光大保德信裕鑫混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>510110</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>海富通上证周期ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009754</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005487</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>平安量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>61.76</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001381</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>鹏华弘泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>28.53</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>512270</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华安沪深300行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005179</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>信达澳银新起点定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601288-农业银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601288-农业银行.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8619,4 +8620,3176 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3050</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1926</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8815</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6895</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6572</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011521</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5956</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5867</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证银行指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4530</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4430</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3953</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3819</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3504</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2764</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>51.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2649</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2494</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>31.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2179</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1991</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1887</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001201</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1855</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010797</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1759</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1655</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001727</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>42.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>28.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005486</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>62.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010589</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏扬景安一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>28.08</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011522</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>73.17</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001172</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华弘泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159887</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国中证800银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000743</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>红塔红土盛世普益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>62.24</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004772</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>23.78</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>516310</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达中证银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>50.28</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002358</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>400011</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东方核心动力混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001418</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>73.01</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010373</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>西部利得聚兴一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010834</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009627</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004446</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>南方荣年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002273</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>68.80</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005635</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005295</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>诺德天富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>72.22</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011971</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010074</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方誉隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010850</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003797</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>003798</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010835</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>51.12</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>168205</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中融中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010851</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010374</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>西部利得聚兴一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011972</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010798</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010590</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鹏扬景安一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>510110</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>海富通上证周期ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009628</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005636</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001381</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>鹏华弘泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005487</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>平安量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>62.83</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>510690</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>兴业上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>96.21</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004773</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>23.78</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010075</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>南方誉隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>004447</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>南方荣年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601288-农业银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601288-农业银行.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11792,4 +11793,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>82</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>78</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>82</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>51</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.390000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601288-农业银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601288-农业银行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11801,7 +11802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11812,17 +11813,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11832,14 +11853,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>82</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.25</v>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4717</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -11848,14 +11891,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>78</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.31</v>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7798</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -11864,14 +11929,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>82</v>
-      </c>
-      <c r="D4" t="n">
-        <v>27.42</v>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8194</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -11880,13 +11967,3077 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5693</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1261</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1206</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9746</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9459</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8665</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8560</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7696</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证银行指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6539</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6096</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011017</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏扬景明一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>51.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5870</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4797</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4330</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011521</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>33.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4047</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>71.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3907</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3209</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3136</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2900</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2801</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>30.73</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2471</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2436</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2430</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159887</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国中证800银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2318</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>43.99</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2140</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001201</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>22.75</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1852</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1826</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001727</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>22.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010547</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时恒进6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.71</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>67.49</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011484</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000743</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>红塔红土盛世普益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010589</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏扬景安一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004772</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>24.79</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>516310</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>易方达中证银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010834</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011522</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001190</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001418</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003966</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011971</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011485</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002273</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005295</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>诺德天富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003967</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010850</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>36.29</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>510650</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏金融ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010835</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002434</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009627</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>21.96</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002435</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011972</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>003579</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中金沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>168205</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中融中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010851</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>36.29</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>97.07</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010590</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏扬景安一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>510110</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>海富通上证周期ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>95.32</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010548</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>博时恒进6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009628</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>21.96</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001191</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004773</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>24.79</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>003015</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中金沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>82</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>78</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>82</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>51</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>9.390000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601288-农业银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601288-农业银行.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14936,7 +14937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14947,17 +14948,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14967,14 +14988,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>27.44</v>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6934</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -14983,14 +15026,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>82</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.25</v>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9154</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -14999,14 +15064,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>78</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.31</v>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6783</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -15015,14 +15102,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>82</v>
-      </c>
-      <c r="D5" t="n">
-        <v>27.42</v>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5153</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -15031,13 +15140,5293 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1826</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3223</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1582</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006259</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富红利增长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1297</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>36.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1105</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1073</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华长荣混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>67.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9628</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9570</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8995</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8007</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6841</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中证银行指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6693</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>65.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6467</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5988</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5530</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>64.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5146</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4451</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4071</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3971</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3832</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001490</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3411</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3220</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002780</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3111</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3043</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2957</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015124</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票D</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2901</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2876</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2875</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2810</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2702</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2673</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2617</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001201</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2355</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2322</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2322</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>62.89</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2245</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005671</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>77.46</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2108</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2045</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>70.68</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2018</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001727</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1976</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1878</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011484</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001009</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159887</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国中证800银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1268</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华安中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014103</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>78.26</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006260</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇添富红利增长混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>77.72</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004772</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20.48</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005706</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>兴业龙腾双益平衡混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>97.57</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>540012</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇丰晋信恒生A股行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>516310</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>易方达中证银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010834</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>34.49</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010923</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>永赢鑫欣混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>30.35</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>399001</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中海上证50指数增强</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011132</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>72.31</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>52.19</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002434</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009627</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010850</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>35.43</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>27.59</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007043</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009154</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>海富通富盈混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>003966</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011485</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>673071</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>400011</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东方核心动力混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001190</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>165521</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>信诚中证800金融指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011971</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008238</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中泰沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>673073</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>003967</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001329</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>25.73</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008058</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>鹏华鑫享稳健混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010835</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>34.49</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>860010</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>51.97</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>510030</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华宝上证180价值ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005231</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>红塔红土盛通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>69.33</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>860029</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>51.97</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>008239</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中泰沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>510650</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华夏金融ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005635</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005232</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>红塔红土盛通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>69.33</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>002435</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>003805</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>012206</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中泰沪深300指数量化优选增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>009155</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>海富通富盈混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011133</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010851</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>35.43</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001419</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>64.51</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011972</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>168205</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>中融中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>001330</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>25.73</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>53.97</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>002443</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>前海开源沪港深龙头精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>014104</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>27.59</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>005672</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>77.46</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>510110</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>海富通上证周期ETF</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>95.83</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>012207</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>中泰沪深300指数量化优选增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>009628</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>003806</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>008059</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>鹏华鑫享稳健混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011444</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>创金合信瑞裕混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>68.73</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>860028</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>51.97</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>001149</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>汇丰晋信恒生A股行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>001191</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>004773</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>20.48</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>005636</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>001303</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>005399</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>长信量化价值驱动混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>002323</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>009669</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>长信量化价值驱动混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>002314</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>64.51</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>011445</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>创金合信瑞裕混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>68.73</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>53.97</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>140</v>
+      </c>
+      <c r="D2" t="n">
+        <v>39.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>81</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>82</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>78</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>82</v>
+      </c>
+      <c r="D6" t="n">
+        <v>27.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>51</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>9.390000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601288-农业银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601288-农业银行.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20309,7 +20310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20320,17 +20321,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -20340,14 +20361,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>140</v>
-      </c>
-      <c r="D2" t="n">
-        <v>39.71</v>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>105.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2533</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -20356,14 +20399,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>81</v>
-      </c>
-      <c r="D3" t="n">
-        <v>27.44</v>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9934</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -20372,14 +20437,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>82</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17.25</v>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2280</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -20388,14 +20475,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>78</v>
-      </c>
-      <c r="D5" t="n">
-        <v>23.31</v>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1213</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -20404,14 +20513,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>82</v>
-      </c>
-      <c r="D6" t="n">
-        <v>27.42</v>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0101</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -20420,13 +20551,3183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华长荣混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9440</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7922</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006259</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富红利增长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6359</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5618</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证银行指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5559</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014772</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中泰红利价值一年持有混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5309</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014771</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中泰红利优选一年持有混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4872</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3621</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3385</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2861</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2694</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2542</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001201</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2307</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001490</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2258</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1978</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001727</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1842</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159887</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国中证800银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>35.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>78.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011484</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005706</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴业龙腾双益平衡混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004772</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>540012</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇丰晋信恒生A股行业龙头指数A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>516310</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达中证银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006260</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富红利增长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012042</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013611</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006034</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>165521</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>信诚中证800金融指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005850</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>财通量化价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>860010</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>54.55</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005231</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>红塔红土盛通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>42.53</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>860029</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>54.55</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005232</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>红塔红土盛通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>26.81</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>510650</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏金融ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011971</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>516210</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华安中证银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011485</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011972</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>浦银安盛中证锐联沪港深基本面100指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>013330</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富国中证银行指数C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>26.80</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014028</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008768</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>创金合信上证超大盘量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>860028</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>54.55</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>53.88</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001149</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇丰晋信恒生A股行业龙头指数C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>26.81</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001303</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004773</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>013612</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008769</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>创金合信上证超大盘量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>015123</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002323</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>013121</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>信诚中证800金融指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>53.88</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>015124</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票D</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014983</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华安中证银行C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>-0.31</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>-0.0119</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>85</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>140</v>
+      </c>
+      <c r="D3" t="n">
+        <v>39.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>81</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>82</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>78</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23.31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>82</v>
+      </c>
+      <c r="D7" t="n">
+        <v>27.42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>51</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>9.390000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601288-农业银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601288-农业银行.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D2" t="n">
-        <v>20.22</v>
+        <v>28.53</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="D3" t="n">
-        <v>39.71</v>
+        <v>20.22</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="D4" t="n">
-        <v>27.44</v>
+        <v>39.71</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" t="n">
-        <v>17.25</v>
+        <v>27.44</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D6" t="n">
-        <v>23.31</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D7" t="n">
-        <v>27.42</v>
+        <v>23.31</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>82</v>
+      </c>
+      <c r="D8" t="n">
+        <v>27.42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>51</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>9.390000000000001</v>
       </c>
     </row>
@@ -600,6 +617,4003 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8997</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1284</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0082</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9432</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9033</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>52.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1876</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商优质成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1346</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0730</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9849</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华长荣混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>65.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8936</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006259</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富红利增长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6575</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002657</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6531</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5625</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商景气精选股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5205</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证银行指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5174</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014772</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中泰红利价值一年持有混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5015</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014771</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中泰红利优选一年持有混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4774</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4704</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3455</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3186</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3173</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3074</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2713</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2616</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2435</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2151</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商景气精选股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2100</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>73.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1828</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010688</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商瑞德一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1818</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000172</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>16.96</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1815</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001490</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1744</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002658</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159887</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国中证800银行ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1558</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1388</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010931</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国联安鑫元1个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>78.67</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011001</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中邮兴荣价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>40.76</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>31.99</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012877</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富荣福耀混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>61.19</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005706</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>兴业龙腾双益平衡混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>32.02</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012042</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006260</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富红利增长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>81.43</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>95.93</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>399001</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中海上证50指数增强</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>516310</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>易方达中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安中证银行A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013611</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>015206</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商安裕灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007663</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>平安安享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002282</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>平安安享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>76.59</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>165521</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>信诚中证800金融指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010689</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商瑞德一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>516210</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华安中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002485</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国联安通盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008856</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>73.03</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011971</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011972</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>510650</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华夏金融ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>75.73</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002443</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>前海开源沪港深龙头精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>013330</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国中证银行指数C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>166402</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>浦银安盛沪港深基本面（LOF）</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>007939</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>014028</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010932</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国联安鑫元1个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>000664</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>国联安通盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>75.73</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010234</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>014983</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华安中证银行C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>510110</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>海富通上证周期ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>015123</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002837</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>008768</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>创金合信上证超大盘量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>013612</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>008769</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>创金合信上证超大盘量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>016374</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>013121</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>信诚中证800金融指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>015124</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票D</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>960041</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合H</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>012876</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>富荣福耀混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>61.19</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>016343</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）E</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3883,7 +7897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9255,7 +13269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12389,7 +16403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15561,7 +19575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18579,7 +22593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21744,7 +25758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601288-农业银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601288-农业银行.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D2" t="n">
-        <v>28.53</v>
+        <v>19.48</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D3" t="n">
-        <v>20.22</v>
+        <v>28.53</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="D4" t="n">
-        <v>39.71</v>
+        <v>20.22</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="D5" t="n">
-        <v>27.44</v>
+        <v>39.71</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" t="n">
-        <v>17.25</v>
+        <v>27.44</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D7" t="n">
-        <v>23.31</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D8" t="n">
-        <v>27.42</v>
+        <v>23.31</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2022 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>82</v>
+      </c>
+      <c r="D9" t="n">
+        <v>27.42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>51</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>9.390000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6093</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1186</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6860</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4649</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3320</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2979</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证银行指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000398</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2082</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1913</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1527</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001358</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈祥泰混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>54.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009440</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大保德信裕鑫混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>673030</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得多策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>71.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>97.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519162</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>新华增怡债券A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009493</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成尊享18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001283</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>58.06</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>165531</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>信诚多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>68.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001284</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>58.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003591</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞享利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>26.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>168205</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中融中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>28.10</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>510110</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>海富通上证周期ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519163</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>新华增怡债券C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009494</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>大成尊享18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009441</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>光大保德信裕鑫混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006349</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际价值指数A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>512270</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安沪深300行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>95.26</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003592</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰柏瑞享利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>26.67</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006350</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际价值指数C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007575</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>宝盈祥泰混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2626,3361 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0425</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6166</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1608</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0311</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9200</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华长荣混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9100</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8037</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002670</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7304</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>016343</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5415</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5345</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证银行指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5179</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014772</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中泰红利价值一年持有混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5139</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014771</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中泰红利优选一年持有混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5048</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4719</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3186</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2972</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002671</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2878</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015124</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票D</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2870</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001490</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2792</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>470007</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富上证综合指数</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2730</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>510210</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国上证综指ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2685</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2389</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2377</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2112</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002780</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2047</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000172</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1833</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1725</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159887</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国中证800银行ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010931</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国联安鑫元1个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>31.28</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005671</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>165310</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012042</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安中证银行A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>501076</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华创新动力混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>51.28</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>516310</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>78.50</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>400011</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东方核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>97.18</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013611</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>27.01</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>165521</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>信诚中证800金融指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>510030</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华宝上证180价值ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>516210</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华安中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014198</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011971</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>510650</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>上证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010234</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007043</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011972</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>860029</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>59.40</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008856</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>77.46</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>501219</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011224</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>九泰盈泰量化股票A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013330</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国中证银行指数C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011225</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>九泰盈泰量化股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>015123</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007939</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014028</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005672</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010932</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国联安鑫元1个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>31.28</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>510110</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>海富通上证周期ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>97.02</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009208</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014986</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东方核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002837</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>860028</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>59.40</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>013612</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>27.01</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002194</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>北信瑞丰稳定增强偏债混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>013121</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>信诚中证800金融指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>860010</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>59.40</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>960041</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化增强混合H</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>014983</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华安中证银行C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>-0.42</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>-0.0163</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4613,7 +9977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7897,7 +13261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13269,7 +18633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16403,7 +21767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19575,7 +24939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22593,7 +27957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25756,1996 +31120,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512800</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>92.31</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.05</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.6093</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160631</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华中证银行指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>30.15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1186</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>512700</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.50</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.75</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6860</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161723</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商中证银行指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.60</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4649</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>470007</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富上证综合指数</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9.91</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3320</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161121</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达中证银行指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8.03</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2979</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>161029</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国中证银行指数</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2310</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000398</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华富灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>29.81</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2082</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>160418</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华安中证银行指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1913</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>512820</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>汇添富中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>99.55</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1772</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009911</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>68.57</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1539</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005392</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>68.57</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1527</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>510760</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国泰上证综合ETF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>8.33</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>98.62</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1474</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>160517</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>博时中证银行指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1399</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009860</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>易方达中证银行指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1369</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>161611</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>融通内需驱动混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>86.42</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1285</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>510210</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>富国上证综指ETF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>95.40</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1192</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>515020</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华夏中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>98.14</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1186</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001358</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>宝盈祥泰混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>21.77</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1099</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>008115</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>6.45</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1058</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002849</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>金信智能中国2025灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>85.33</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0767</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001304</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>建信鑫安回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>54.48</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0722</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009440</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>光大保德信裕鑫混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>8.21</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>20.98</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0698</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>673030</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>西部利得多策略优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>71.13</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0597</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>512730</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>鹏华中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>97.02</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0584</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>519162</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>新华增怡债券A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>20.11</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0444</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>009493</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>大成尊享18个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>28.01</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0414</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>510060</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>工银上证央企50ETF</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>99.15</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0386</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>001411</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>诺安创新驱动灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0308</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>001283</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>红塔红土盛金新动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>58.06</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0299</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>165531</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>信诚多策略灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>68.58</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0252</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>001284</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>红塔红土盛金新动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>58.06</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0241</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>515300</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>嘉实沪深300红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>98.29</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0231</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>515100</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>景顺长城中证红利低波动100ETF</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>97.86</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0214</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>003591</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>华泰柏瑞享利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>26.67</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>501059</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0203</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>515280</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>富国中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>96.57</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0173</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>168205</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>中融中证银行指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>92.77</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0163</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>002051</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>诺安创新驱动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0138</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>008114</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>天弘中证红利低波动100指数A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0134</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>000270</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>建信灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>28.10</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0117</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>510110</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>海富通上证周期ETF</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0088</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>519163</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>新华增怡债券C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>20.11</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>009494</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>大成尊享18个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>28.01</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>009441</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>光大保德信裕鑫混合C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>20.98</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>006349</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>中金MSCI中国A股国际价值指数A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>009439</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>512270</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>华安沪深300行业中性低波动ETF</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>95.26</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>003592</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>华泰柏瑞享利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>26.67</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>006350</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>中金MSCI中国A股国际价值指数C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>007575</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>宝盈祥泰混合C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>21.77</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>